--- a/refuel.xlsx
+++ b/refuel.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="12840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="4" r:id="rId1"/>
     <sheet name="Complete" sheetId="1" r:id="rId2"/>
     <sheet name="Bangalore" sheetId="2" r:id="rId3"/>
     <sheet name="Pune" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Misc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="55">
   <si>
     <t>Odometer (km)</t>
   </si>
@@ -147,6 +147,42 @@
   </si>
   <si>
     <t>USD ($)</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -474,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -771,6 +807,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -867,6 +927,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="26" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -941,7 +1016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1239,11 +1313,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74654080"/>
-        <c:axId val="74655616"/>
+        <c:axId val="76882304"/>
+        <c:axId val="76883840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74654080"/>
+        <c:axId val="76882304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,12 +1325,12 @@
         <c:numFmt formatCode="[$-14009]dd\-mm\-yyyy;@" sourceLinked="0"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74655616"/>
+        <c:crossAx val="76883840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74655616"/>
+        <c:axId val="76883840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1339,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74654080"/>
+        <c:crossAx val="76882304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1285,7 +1359,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1301,7 +1374,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1490,23 +1563,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77162752"/>
-        <c:axId val="77185024"/>
+        <c:axId val="77424896"/>
+        <c:axId val="77447168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77162752"/>
+        <c:axId val="77424896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-24009]mmmm\ dd\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77185024"/>
+        <c:crossAx val="77447168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77185024"/>
+        <c:axId val="77447168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1587,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77162752"/>
+        <c:crossAx val="77424896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1527,7 +1600,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1692,23 +1765,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74731904"/>
-        <c:axId val="74733440"/>
+        <c:axId val="76960128"/>
+        <c:axId val="76961664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74731904"/>
+        <c:axId val="76960128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-24009]mmmm\ dd\,\ yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74733440"/>
+        <c:crossAx val="76961664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74733440"/>
+        <c:axId val="76961664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1789,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74731904"/>
+        <c:crossAx val="76960128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1729,7 +1802,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1944,11 +2017,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78548992"/>
-        <c:axId val="78550528"/>
+        <c:axId val="80781312"/>
+        <c:axId val="80782848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78548992"/>
+        <c:axId val="80781312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,12 +2039,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78550528"/>
+        <c:crossAx val="80782848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78550528"/>
+        <c:axId val="80782848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +2053,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78548992"/>
+        <c:crossAx val="80781312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1993,7 +2066,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2030,7 +2103,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.1239337427904335E-2"/>
           <c:y val="0.11243168752202568"/>
-          <c:w val="0.77749084145846303"/>
+          <c:w val="0.77749084145846314"/>
           <c:h val="0.74848573787995953"/>
         </c:manualLayout>
       </c:layout>
@@ -2192,11 +2265,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78849152"/>
-        <c:axId val="78850688"/>
+        <c:axId val="81081472"/>
+        <c:axId val="81083008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78849152"/>
+        <c:axId val="81081472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,12 +2287,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78850688"/>
+        <c:crossAx val="81083008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78850688"/>
+        <c:axId val="81083008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2301,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78849152"/>
+        <c:crossAx val="81081472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2241,7 +2314,202 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2016</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Misc!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Misc!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>11.459939065186166</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>11.050573374290463</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>14.213513498166757</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>12.038410656796994</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>11.232389533216402</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>12.314254121915848</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>12.103000245441242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2017</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Misc!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15.997578084265493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.16738092844818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.597993522979237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.385729356478373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.340752088983129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.615714757345659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.101366742596811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.214382511758288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.42344706911636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="73239552"/>
+        <c:axId val="78496512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73239552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78496512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78496512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73239552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2404,6 +2672,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2714,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2726,7 +3029,7 @@
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
@@ -2737,32 +3040,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2784,7 +3088,7 @@
       <c r="F2" s="4">
         <v>39.945</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="34" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -2821,7 +3125,7 @@
       <c r="F3" s="4">
         <v>29.66</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" ref="G3:G46" si="1">(A3-A2)/F3</f>
         <v>11.968981793661497</v>
       </c>
@@ -2860,7 +3164,7 @@
       <c r="F4" s="4">
         <v>25.66</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>10.950896336710834</v>
       </c>
@@ -2893,7 +3197,7 @@
       <c r="F5" s="4">
         <v>30.94</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>11.344537815126049</v>
       </c>
@@ -2933,7 +3237,7 @@
       <c r="F6" s="4">
         <v>32.909999999999997</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>10.756608933454878</v>
       </c>
@@ -2973,7 +3277,7 @@
       <c r="F7" s="4">
         <v>32.03</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>11.458008117389946</v>
       </c>
@@ -3013,7 +3317,7 @@
       <c r="F8" s="17">
         <v>22.76</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="35">
         <f t="shared" si="1"/>
         <v>15.597539543057996</v>
       </c>
@@ -3047,7 +3351,7 @@
       <c r="F9" s="17">
         <v>31.78</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="35">
         <f t="shared" si="1"/>
         <v>15.481434864694776</v>
       </c>
@@ -3082,7 +3386,7 @@
       <c r="F10" s="17">
         <v>12.599</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="35">
         <f t="shared" si="1"/>
         <v>16.906103659020555</v>
       </c>
@@ -3116,7 +3420,7 @@
       <c r="F11" s="17">
         <v>30.66</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="35">
         <f t="shared" si="1"/>
         <v>15.883887801696021</v>
       </c>
@@ -3154,7 +3458,7 @@
       <c r="F12" s="4">
         <v>33.369999999999997</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>12.13664968534612</v>
       </c>
@@ -3194,7 +3498,7 @@
       <c r="F13" s="4">
         <v>33.58</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>12.030970815961883</v>
       </c>
@@ -3234,7 +3538,7 @@
       <c r="F14" s="4">
         <v>31.26</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>12.987843889955213</v>
       </c>
@@ -3267,7 +3571,7 @@
       <c r="F15" s="4">
         <v>30.12</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>11.088977423638777</v>
       </c>
@@ -3304,7 +3608,7 @@
       <c r="F16" s="4">
         <v>30.09</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>10.900631439016285</v>
       </c>
@@ -3344,7 +3648,7 @@
       <c r="F17" s="4">
         <v>28.45</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>11.564147627416521</v>
       </c>
@@ -3390,7 +3694,7 @@
       <c r="F18" s="4">
         <v>30.57</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>13.24828263002944</v>
       </c>
@@ -3423,7 +3727,7 @@
       <c r="F19" s="4">
         <v>30.14</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>11.380225613802256</v>
       </c>
@@ -3456,7 +3760,7 @@
       <c r="F20" s="4">
         <v>30.47</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="1"/>
         <v>13.193304890055794</v>
       </c>
@@ -3489,7 +3793,7 @@
       <c r="F21" s="4">
         <v>33.869999999999997</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>11.012695600826691</v>
       </c>
@@ -3522,7 +3826,7 @@
       <c r="F22" s="4">
         <v>6.76</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="1"/>
         <v>11.98224852071006</v>
       </c>
@@ -3555,7 +3859,7 @@
       <c r="F23" s="17">
         <v>16.420000000000002</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="35">
         <f t="shared" si="1"/>
         <v>19.062119366626064</v>
       </c>
@@ -3589,7 +3893,7 @@
       <c r="F24" s="17">
         <v>22.792000000000002</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="35">
         <f t="shared" si="1"/>
         <v>15.926640926640925</v>
       </c>
@@ -3623,7 +3927,7 @@
       <c r="F25" s="17">
         <v>14.5</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="35">
         <f t="shared" si="1"/>
         <v>16.96551724137931</v>
       </c>
@@ -3657,7 +3961,7 @@
       <c r="F26" s="4">
         <v>31.15</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="1"/>
         <v>16.051364365971107</v>
       </c>
@@ -3690,7 +3994,7 @@
       <c r="F27" s="4">
         <v>18.78</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="1"/>
         <v>14.802981895633652</v>
       </c>
@@ -3723,7 +4027,7 @@
       <c r="F28" s="4">
         <v>30.66</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f t="shared" si="1"/>
         <v>15.557729941291585</v>
       </c>
@@ -3756,7 +4060,7 @@
       <c r="F29" s="4">
         <v>12.02</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f>(A29-A28)/F29</f>
         <v>15.141430948419302</v>
       </c>
@@ -3789,7 +4093,7 @@
       <c r="F30" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="1"/>
         <v>14.712643678160921</v>
       </c>
@@ -3822,7 +4126,7 @@
       <c r="F31" s="4">
         <v>32.44</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <f t="shared" si="1"/>
         <v>15.413070283600494</v>
       </c>
@@ -3855,7 +4159,7 @@
       <c r="F32" s="4">
         <v>20.52</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f t="shared" si="1"/>
         <v>15.497076023391813</v>
       </c>
@@ -3888,7 +4192,7 @@
       <c r="F33" s="4">
         <v>32.97</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="1"/>
         <v>12.769184106763724</v>
       </c>
@@ -3921,7 +4225,7 @@
       <c r="F34" s="4">
         <v>31.280999999999999</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f t="shared" si="1"/>
         <v>14.385729356478373</v>
       </c>
@@ -3954,7 +4258,7 @@
       <c r="F35" s="4">
         <v>28.1</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="1"/>
         <v>13.95017793594306</v>
       </c>
@@ -3987,7 +4291,7 @@
       <c r="F36" s="4">
         <v>13.7</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <f t="shared" si="1"/>
         <v>14.233576642335768</v>
       </c>
@@ -4020,7 +4324,7 @@
       <c r="F37" s="17">
         <v>32.57</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="35">
         <f t="shared" si="1"/>
         <v>17.838501688670554</v>
       </c>
@@ -4054,7 +4358,7 @@
       <c r="F38" s="4">
         <v>30.29</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <f t="shared" si="1"/>
         <v>15.615714757345659</v>
       </c>
@@ -4087,7 +4391,7 @@
       <c r="F39" s="4">
         <v>35.119999999999997</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <f t="shared" si="1"/>
         <v>12.101366742596811</v>
       </c>
@@ -4120,7 +4424,7 @@
       <c r="F40" s="4">
         <v>33.75</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f t="shared" si="1"/>
         <v>12.592592592592593</v>
       </c>
@@ -4153,7 +4457,7 @@
       <c r="F41" s="4">
         <v>34.950000000000003</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <f t="shared" si="1"/>
         <v>12.961373390557938</v>
       </c>
@@ -4186,7 +4490,7 @@
       <c r="F42" s="4">
         <v>30</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <f t="shared" si="1"/>
         <v>13.3</v>
       </c>
@@ -4219,7 +4523,7 @@
       <c r="F43" s="4">
         <v>33.03</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <f t="shared" si="1"/>
         <v>13.381774144716923</v>
       </c>
@@ -4252,7 +4556,7 @@
       <c r="F44" s="4">
         <v>34.29</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <f t="shared" si="1"/>
         <v>12.42344706911636</v>
       </c>
@@ -4285,7 +4589,7 @@
       <c r="F45" s="4">
         <v>34.25</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <f t="shared" si="1"/>
         <v>13.459854014598541</v>
       </c>
@@ -4318,7 +4622,7 @@
       <c r="F46" s="4">
         <v>31.37</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <f t="shared" si="1"/>
         <v>14.344915524386355</v>
       </c>
@@ -4347,7 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -5344,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6281,14 +6585,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="41">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="41">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="41">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="41">
+        <v>2019</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11">
+        <f>AVERAGE(Complete!G22:G26)</f>
+        <v>15.997578084265493</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11">
+        <f>AVERAGE(Complete!G27:G29)</f>
+        <v>15.16738092844818</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11">
+        <f>AVERAGE(Complete!G30:G33)</f>
+        <v>14.597993522979237</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11">
+        <f>AVERAGE(Complete!G34)</f>
+        <v>14.385729356478373</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11">
+        <f>AVERAGE(Complete!G35:G37)</f>
+        <v>15.340752088983129</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11">
+        <f>AVERAGE(Complete!G3:G4)</f>
+        <v>11.459939065186166</v>
+      </c>
+      <c r="C7" s="11">
+        <f>AVERAGE(Complete!G38)</f>
+        <v>15.615714757345659</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11">
+        <f>AVERAGE(Complete!G5:G6)</f>
+        <v>11.050573374290463</v>
+      </c>
+      <c r="C8" s="11">
+        <f>AVERAGE(Complete!G39)</f>
+        <v>12.101366742596811</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11">
+        <f>AVERAGE(Complete!G7:G13)</f>
+        <v>14.213513498166757</v>
+      </c>
+      <c r="C9" s="11">
+        <f>AVERAGE(Complete!G40)</f>
+        <v>12.592592592592593</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="11">
+        <f>AVERAGE(Complete!G14:G15)</f>
+        <v>12.038410656796994</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(Complete!G41:G43)</f>
+        <v>13.214382511758288</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11">
+        <f>AVERAGE(Complete!G16:G17)</f>
+        <v>11.232389533216402</v>
+      </c>
+      <c r="C11" s="11">
+        <f>AVERAGE(Complete!G44)</f>
+        <v>12.42344706911636</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="11">
+        <f>AVERAGE(Complete!G18:G19)</f>
+        <v>12.314254121915848</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="43">
+        <f>AVERAGE(Complete!G20:G21)</f>
+        <v>12.103000245441242</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>